--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Haute-Normandie/Liste_des_espèces_végétales_protégées_en_Haute-Normandie.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Haute-Normandie/Liste_des_espèces_végétales_protégées_en_Haute-Normandie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Haute-Normandie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Haute-Normandie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Haute-Normandie est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Haute-Normandie, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 3 avril 1990[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Haute-Normandie est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Haute-Normandie, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 3 avril 1990.
 La rareté régionale, la menace (suivie de l'argumentaire selon la norme UICN) sont données d'après l'inventaire de la flore vasculaire de Haute-Normandie (Ptéridophytes et Spermatophytes) : raretés, protections, menaces et statuts du Conservatoire Botanique National de Bailleul téléchargeable en ligne.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Haute-Normandie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Haute-Normandie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lichens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lobaria pulmonaria (L.) Hoffm.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Haute-Normandie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Haute-Normandie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Bryophytes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Barbilophozia attenuata (Mart.) Loeske anciennement Barbilophozia gracilis (Schl.) K. Mull.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Haute-Normandie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Haute-Normandie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gymnocarpium dryopteris (L.) Newman, Dryoptéris de Linné
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Haute-Normandie</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Haute-Normandie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,8 +645,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monocotylédones
-Anacamptis palustris (Jacq.) R.M.Bateman, Pridgeon &amp; M.W.Chase[2]
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Anacamptis palustris (Jacq.) R.M.Bateman, Pridgeon &amp; M.W.Chase
 Baldellia ranunculoides (L.) Parl., Flûteau fausse-renoncule
 Carex digitata L., Laîche digitée
 Carex humilis Leyss., Laîche humble
@@ -653,7 +677,43 @@
 Stratiotes aloides L., Aloès d'eau
 RR
 Triglochin palustre L., Troscard des marais
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Haute-Normandie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Haute-Normandie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Actaea spicata L., Actée en épis.
 Aconitum napellus L., Aconit napel.
 Anemone hepatica L., synonyme de Hepatica nobilis Miller, Anémone hépatique.
